--- a/newAna2020/HOE/HOE_Beam4_Rayfile_484_allwl_m00_m00_RAY.xlsx
+++ b/newAna2020/HOE/HOE_Beam4_Rayfile_484_allwl_m00_m00_RAY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dagoret/MacOSX/LSST/HoloSpec/BEAMFOUR_GitHub/End_User/BeamFour/HOLOSPEC_B4/newAna2020/HOE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF751FF6-8E05-A648-80DE-5F19798A22D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4F1184-CC8E-8D41-82E1-18A3508D2454}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16780" xr2:uid="{8A866909-C8EB-5C4D-A34D-49698F783506}"/>
   </bookViews>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="32">
   <si>
     <t>rays</t>
   </si>
@@ -158,19 +158,13 @@
     <t>k</t>
   </si>
   <si>
-    <t># 484</t>
-  </si>
-  <si>
-    <t># X0</t>
-  </si>
-  <si>
-    <t>#----------</t>
-  </si>
-  <si>
     <t>col</t>
   </si>
   <si>
     <t>wave</t>
+  </si>
+  <si>
+    <t>X0</t>
   </si>
 </sst>
 </file>
@@ -206,8 +200,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -529,7 +524,7 @@
   <dimension ref="A1:X487"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -553,8 +548,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>29</v>
+      <c r="A1">
+        <v>484</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -565,7 +560,7 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -583,10 +578,10 @@
         <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I2" t="s">
         <v>7</v>
@@ -635,8 +630,8 @@
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>31</v>
+      <c r="A3" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
